--- a/accounting.xlsx
+++ b/accounting.xlsx
@@ -15,12 +15,87 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="27">
   <si>
     <t>General Journal</t>
   </si>
   <si>
+    <t>J003</t>
+  </si>
+  <si>
+    <t>2019-12-05</t>
+  </si>
+  <si>
+    <t>debited</t>
+  </si>
+  <si>
     <t>Entries</t>
+  </si>
+  <si>
+    <t>Credit</t>
+  </si>
+  <si>
+    <t>Z002</t>
+  </si>
+  <si>
+    <t>J001</t>
+  </si>
+  <si>
+    <t>A001</t>
+  </si>
+  <si>
+    <t>Debit</t>
+  </si>
+  <si>
+    <t>Z003</t>
+  </si>
+  <si>
+    <t>L001</t>
+  </si>
+  <si>
+    <t>Z004</t>
+  </si>
+  <si>
+    <t>O001</t>
+  </si>
+  <si>
+    <t>Z005</t>
+  </si>
+  <si>
+    <t>E001</t>
+  </si>
+  <si>
+    <t>Z007</t>
+  </si>
+  <si>
+    <t>J002</t>
+  </si>
+  <si>
+    <t>Z008</t>
+  </si>
+  <si>
+    <t>Z009</t>
+  </si>
+  <si>
+    <t>Z010</t>
+  </si>
+  <si>
+    <t>Z012</t>
+  </si>
+  <si>
+    <t>Z013</t>
+  </si>
+  <si>
+    <t>Z014</t>
+  </si>
+  <si>
+    <t>Z015</t>
+  </si>
+  <si>
+    <t>Z016</t>
+  </si>
+  <si>
+    <t>R001</t>
   </si>
 </sst>
 </file>
@@ -352,15 +427,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -370,15 +456,236 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>56000</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>50000</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>60000</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5">
+        <v>750000</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6">
+        <v>5000</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7">
+        <v>5000</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8">
+        <v>5000</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9">
+        <v>10000</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10">
+        <v>5000</v>
+      </c>
+      <c r="D10" t="s">
         <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11">
+        <v>5000</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12">
+        <v>5000</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13">
+        <v>10000</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14">
+        <v>5000</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
